--- a/docs/Finance/templates/LedgerEntry.xlsx
+++ b/docs/Finance/templates/LedgerEntry.xlsx
@@ -21,7 +21,7 @@
     <t>ledger_entries</t>
   </si>
   <si>
-    <t>LedgerEntry</t>
+    <t>Ledger Entry</t>
   </si>
   <si>
     <t/>

--- a/docs/Finance/templates/LedgerEntry.xlsx
+++ b/docs/Finance/templates/LedgerEntry.xlsx
@@ -589,217 +589,217 @@
     </row>
     <row r="5">
       <c r="AJ5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&BS5&") VALUES ("&DB5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&BS5&") VALUES ("&DB5&");" ]]></f>
       </c>
       <c r="AK5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="AL5">
-        <f><![CDATA[AK5&IF(AND(AK5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  AK5&IF(AND(AK5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="AM5">
-        <f><![CDATA[AL5&IF(AND(AL5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  AL5&IF(AND(AL5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="AN5">
-        <f><![CDATA[AM5&IF(AND(AM5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  AM5&IF(AND(AM5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="AO5">
-        <f><![CDATA[AN5&IF(AND(AN5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  AN5&IF(AND(AN5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="AP5">
-        <f><![CDATA[AO5&IF(AND(AO5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  AO5&IF(AND(AO5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="AQ5">
-        <f><![CDATA[AP5&IF(AND(AP5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  AP5&IF(AND(AP5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="AR5">
-        <f><![CDATA[AQ5&IF(AND(AQ5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","")]]></f>
+        <f><![CDATA[  AQ5&IF(AND(AQ5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
       </c>
       <c r="AS5">
-        <f><![CDATA[AR5&IF(AND(AR5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","")]]></f>
+        <f><![CDATA[  AR5&IF(AND(AR5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
       </c>
       <c r="AT5">
-        <f><![CDATA[AS5&IF(AND(AS5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","")]]></f>
+        <f><![CDATA[  AS5&IF(AND(AS5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
       </c>
       <c r="AU5">
-        <f><![CDATA[AT5&IF(AND(AT5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","")]]></f>
+        <f><![CDATA[  AT5&IF(AND(AT5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
       </c>
       <c r="AV5">
-        <f><![CDATA[AU5&IF(AND(AU5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","")]]></f>
+        <f><![CDATA[  AU5&IF(AND(AU5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
       </c>
       <c r="AW5">
-        <f><![CDATA[AV5&IF(AND(AV5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","")]]></f>
+        <f><![CDATA[  AV5&IF(AND(AV5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","") ]]></f>
       </c>
       <c r="AX5">
-        <f><![CDATA[AW5&IF(AND(AW5<>"",N5<>""),", ","")&IF(N5<>"",""""&N$3&"""","")]]></f>
+        <f><![CDATA[  AW5&IF(AND(AW5<>"",N5<>""),", ","")&IF(N5<>"",""""&N$3&"""","") ]]></f>
       </c>
       <c r="AY5">
-        <f><![CDATA[AX5&IF(AND(AX5<>"",O5<>""),", ","")&IF(O5<>"",""""&O$3&"""","")]]></f>
+        <f><![CDATA[  AX5&IF(AND(AX5<>"",O5<>""),", ","")&IF(O5<>"",""""&O$3&"""","") ]]></f>
       </c>
       <c r="AZ5">
-        <f><![CDATA[AY5&IF(AND(AY5<>"",P5<>""),", ","")&IF(P5<>"",""""&P$3&"""","")]]></f>
+        <f><![CDATA[  AY5&IF(AND(AY5<>"",P5<>""),", ","")&IF(P5<>"",""""&P$3&"""","") ]]></f>
       </c>
       <c r="BA5">
-        <f><![CDATA[AZ5&IF(AND(AZ5<>"",Q5<>""),", ","")&IF(Q5<>"",""""&Q$3&"""","")]]></f>
+        <f><![CDATA[  AZ5&IF(AND(AZ5<>"",Q5<>""),", ","")&IF(Q5<>"",""""&Q$3&"""","") ]]></f>
       </c>
       <c r="BB5">
-        <f><![CDATA[BA5&IF(AND(BA5<>"",R5<>""),", ","")&IF(R5<>"",""""&R$3&"""","")]]></f>
+        <f><![CDATA[  BA5&IF(AND(BA5<>"",R5<>""),", ","")&IF(R5<>"",""""&R$3&"""","") ]]></f>
       </c>
       <c r="BC5">
-        <f><![CDATA[BB5&IF(AND(BB5<>"",S5<>""),", ","")&IF(S5<>"",""""&S$3&"""","")]]></f>
+        <f><![CDATA[  BB5&IF(AND(BB5<>"",S5<>""),", ","")&IF(S5<>"",""""&S$3&"""","") ]]></f>
       </c>
       <c r="BD5">
-        <f><![CDATA[BC5&IF(AND(BC5<>"",T5<>""),", ","")&IF(T5<>"",""""&T$3&"""","")]]></f>
+        <f><![CDATA[  BC5&IF(AND(BC5<>"",T5<>""),", ","")&IF(T5<>"",""""&T$3&"""","") ]]></f>
       </c>
       <c r="BE5">
-        <f><![CDATA[BD5&IF(AND(BD5<>"",U5<>""),", ","")&IF(U5<>"",""""&U$3&"""","")]]></f>
+        <f><![CDATA[  BD5&IF(AND(BD5<>"",U5<>""),", ","")&IF(U5<>"",""""&U$3&"""","") ]]></f>
       </c>
       <c r="BF5">
-        <f><![CDATA[BE5&IF(AND(BE5<>"",V5<>""),", ","")&IF(V5<>"",""""&V$3&"""","")]]></f>
+        <f><![CDATA[  BE5&IF(AND(BE5<>"",V5<>""),", ","")&IF(V5<>"",""""&V$3&"""","") ]]></f>
       </c>
       <c r="BG5">
-        <f><![CDATA[BF5&IF(AND(BF5<>"",W5<>""),", ","")&IF(W5<>"",""""&W$3&"""","")]]></f>
+        <f><![CDATA[  BF5&IF(AND(BF5<>"",W5<>""),", ","")&IF(W5<>"",""""&W$3&"""","") ]]></f>
       </c>
       <c r="BH5">
-        <f><![CDATA[BG5&IF(AND(BG5<>"",X5<>""),", ","")&IF(X5<>"",""""&X$3&"""","")]]></f>
+        <f><![CDATA[  BG5&IF(AND(BG5<>"",X5<>""),", ","")&IF(X5<>"",""""&X$3&"""","") ]]></f>
       </c>
       <c r="BI5">
-        <f><![CDATA[BH5&IF(AND(BH5<>"",Y5<>""),", ","")&IF(Y5<>"",""""&Y$3&"""","")]]></f>
+        <f><![CDATA[  BH5&IF(AND(BH5<>"",Y5<>""),", ","")&IF(Y5<>"",""""&Y$3&"""","") ]]></f>
       </c>
       <c r="BJ5">
-        <f><![CDATA[BI5&IF(AND(BI5<>"",Z5<>""),", ","")&IF(Z5<>"",""""&Z$3&"""","")]]></f>
+        <f><![CDATA[  BI5&IF(AND(BI5<>"",Z5<>""),", ","")&IF(Z5<>"",""""&Z$3&"""","") ]]></f>
       </c>
       <c r="BK5">
-        <f><![CDATA[BJ5&IF(AND(BJ5<>"",AA5<>""),", ","")&IF(AA5<>"",""""&AA$3&"""","")]]></f>
+        <f><![CDATA[  BJ5&IF(AND(BJ5<>"",AA5<>""),", ","")&IF(AA5<>"",""""&AA$3&"""","") ]]></f>
       </c>
       <c r="BL5">
-        <f><![CDATA[BK5&IF(AND(BK5<>"",AB5<>""),", ","")&IF(AB5<>"",""""&AB$3&"""","")]]></f>
+        <f><![CDATA[  BK5&IF(AND(BK5<>"",AB5<>""),", ","")&IF(AB5<>"",""""&AB$3&"""","") ]]></f>
       </c>
       <c r="BM5">
-        <f><![CDATA[BL5&IF(AND(BL5<>"",AC5<>""),", ","")&IF(AC5<>"",""""&AC$3&"""","")]]></f>
+        <f><![CDATA[  BL5&IF(AND(BL5<>"",AC5<>""),", ","")&IF(AC5<>"",""""&AC$3&"""","") ]]></f>
       </c>
       <c r="BN5">
-        <f><![CDATA[BM5&IF(AND(BM5<>"",AD5<>""),", ","")&IF(AD5<>"",""""&AD$3&"""","")]]></f>
+        <f><![CDATA[  BM5&IF(AND(BM5<>"",AD5<>""),", ","")&IF(AD5<>"",""""&AD$3&"""","") ]]></f>
       </c>
       <c r="BO5">
-        <f><![CDATA[BN5&IF(AND(BN5<>"",AE5<>""),", ","")&IF(AE5<>"",""""&AE$3&"""","")]]></f>
+        <f><![CDATA[  BN5&IF(AND(BN5<>"",AE5<>""),", ","")&IF(AE5<>"",""""&AE$3&"""","") ]]></f>
       </c>
       <c r="BP5">
-        <f><![CDATA[BO5&IF(AND(BO5<>"",AF5<>""),", ","")&IF(AF5<>"",""""&AF$3&"""","")]]></f>
+        <f><![CDATA[  BO5&IF(AND(BO5<>"",AF5<>""),", ","")&IF(AF5<>"",""""&AF$3&"""","") ]]></f>
       </c>
       <c r="BQ5">
-        <f><![CDATA[BP5&IF(AND(BP5<>"",AG5<>""),", ","")&IF(AG5<>"",""""&AG$3&"""","")]]></f>
+        <f><![CDATA[  BP5&IF(AND(BP5<>"",AG5<>""),", ","")&IF(AG5<>"",""""&AG$3&"""","") ]]></f>
       </c>
       <c r="BR5">
-        <f><![CDATA[BQ5&IF(AND(BQ5<>"",AH5<>""),", ","")&IF(AH5<>"",""""&AH$3&"""","")]]></f>
+        <f><![CDATA[  BQ5&IF(AND(BQ5<>"",AH5<>""),", ","")&IF(AH5<>"",""""&AH$3&"""","") ]]></f>
       </c>
       <c r="BS5">
-        <f><![CDATA[BR5&IF(AND(BR5<>"",AI5<>""),", ","")&IF(AI5<>"",""""&AI$3&"""","")]]></f>
+        <f><![CDATA[  BR5&IF(AND(BR5<>"",AI5<>""),", ","")&IF(AI5<>"",""""&AI$3&"""","") ]]></f>
       </c>
       <c r="BT5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="BU5">
-        <f><![CDATA[BT5&IF(AND(BT5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  BT5&IF(AND(BT5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="BV5">
-        <f><![CDATA[BU5&IF(AND(BU5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  BU5&IF(AND(BU5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="BW5">
-        <f>BV5&amp;IF(AND(BV5&lt;&gt;"",D5&lt;&gt;""),", ","")&amp;IF(D5&lt;&gt;"",D5,"")</f>
+        <f>  BV5&amp;IF(AND(BV5&lt;&gt;"",D5&lt;&gt;""),", ","")&amp;IF(D5&lt;&gt;"",D5,"") </f>
       </c>
       <c r="BX5">
-        <f><![CDATA[BW5&IF(AND(BW5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  BW5&IF(AND(BW5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="BY5">
-        <f><![CDATA[BX5&IF(AND(BX5<>"",F5<>""),", ","")&IF(F5<>"","'"&F5&"'","")]]></f>
+        <f><![CDATA[  BX5&IF(AND(BX5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
       </c>
       <c r="BZ5">
-        <f><![CDATA[BY5&IF(AND(BY5<>"",G5<>""),", ","")&IF(G5<>"","'"&TEXT(G5,"YYYY-MM-DD")&"'","")]]></f>
+        <f><![CDATA[  BY5&IF(AND(BY5<>"",G5<>""),", ","")&IF(G5<>"", "'"&TEXT(G5,"YYYY-MM-DD")&"'" ,"") ]]></f>
       </c>
       <c r="CA5">
-        <f><![CDATA[BZ5&IF(AND(BZ5<>"",H5<>""),", ","")&IF(H5<>"","'"&TEXT(H5,"YYYY-MM-DD")&"'","")]]></f>
+        <f><![CDATA[  BZ5&IF(AND(BZ5<>"",H5<>""),", ","")&IF(H5<>"", "'"&TEXT(H5,"YYYY-MM-DD")&"'" ,"") ]]></f>
       </c>
       <c r="CB5">
-        <f><![CDATA[CA5&IF(AND(CA5<>"",I5<>""),", ","")&IF(I5<>"","'"&TEXT(I5,"YYYY-MM-DD")&"'","")]]></f>
+        <f><![CDATA[  CA5&IF(AND(CA5<>"",I5<>""),", ","")&IF(I5<>"", "'"&TEXT(I5,"YYYY-MM-DD")&"'" ,"") ]]></f>
       </c>
       <c r="CC5">
-        <f>CB5&amp;IF(AND(CB5&lt;&gt;"",J5&lt;&gt;""),", ","")&amp;IF(J5&lt;&gt;"",J5,"")</f>
+        <f>  CB5&amp;IF(AND(CB5&lt;&gt;"",J5&lt;&gt;""),", ","")&amp;IF(J5&lt;&gt;"",J5,"") </f>
       </c>
       <c r="CD5">
-        <f>CC5&amp;IF(AND(CC5&lt;&gt;"",K5&lt;&gt;""),", ","")&amp;IF(K5&lt;&gt;"",K5,"")</f>
+        <f>  CC5&amp;IF(AND(CC5&lt;&gt;"",K5&lt;&gt;""),", ","")&amp;IF(K5&lt;&gt;"",K5,"") </f>
       </c>
       <c r="CE5">
-        <f><![CDATA[CD5&IF(AND(CD5<>"",L5<>""),", ","")&IF(L5<>"","'"&L5&"'","")]]></f>
+        <f><![CDATA[  CD5&IF(AND(CD5<>"",L5<>""),", ","")&IF(L5<>"", "'"&L5&"'" ,"") ]]></f>
       </c>
       <c r="CF5">
-        <f><![CDATA[CE5&IF(AND(CE5<>"",M5<>""),", ","")&IF(M5<>"","'"&M5&"'","")]]></f>
+        <f><![CDATA[  CE5&IF(AND(CE5<>"",M5<>""),", ","")&IF(M5<>"", "'"&M5&"'" ,"") ]]></f>
       </c>
       <c r="CG5">
-        <f><![CDATA[CF5&IF(AND(CF5<>"",N5<>""),", ","")&IF(N5<>"","'"&N5&"'","")]]></f>
+        <f><![CDATA[  CF5&IF(AND(CF5<>"",N5<>""),", ","")&IF(N5<>"", "'"&N5&"'" ,"") ]]></f>
       </c>
       <c r="CH5">
-        <f><![CDATA[CG5&IF(AND(CG5<>"",O5<>""),", ","")&IF(O5<>"","'"&O5&"'","")]]></f>
+        <f><![CDATA[  CG5&IF(AND(CG5<>"",O5<>""),", ","")&IF(O5<>"", "'"&O5&"'" ,"") ]]></f>
       </c>
       <c r="CI5">
-        <f><![CDATA[CH5&IF(AND(CH5<>"",P5<>""),", ","")&IF(P5<>"","'"&P5&"'","")]]></f>
+        <f><![CDATA[  CH5&IF(AND(CH5<>"",P5<>""),", ","")&IF(P5<>"", "'"&P5&"'" ,"") ]]></f>
       </c>
       <c r="CJ5">
-        <f><![CDATA[CI5&IF(AND(CI5<>"",Q5<>""),", ","")&IF(Q5<>"","'"&Q5&"'","")]]></f>
+        <f><![CDATA[  CI5&IF(AND(CI5<>"",Q5<>""),", ","")&IF(Q5<>"", "'"&Q5&"'" ,"") ]]></f>
       </c>
       <c r="CK5">
-        <f><![CDATA[CJ5&IF(AND(CJ5<>"",R5<>""),", ","")&IF(R5<>"","'"&R5&"'","")]]></f>
+        <f><![CDATA[  CJ5&IF(AND(CJ5<>"",R5<>""),", ","")&IF(R5<>"", "'"&R5&"'" ,"") ]]></f>
       </c>
       <c r="CL5">
-        <f><![CDATA[CK5&IF(AND(CK5<>"",S5<>""),", ","")&IF(S5<>"","'"&S5&"'","")]]></f>
+        <f><![CDATA[  CK5&IF(AND(CK5<>"",S5<>""),", ","")&IF(S5<>"", "'"&S5&"'" ,"") ]]></f>
       </c>
       <c r="CM5">
-        <f><![CDATA[CL5&IF(AND(CL5<>"",T5<>""),", ","")&IF(T5<>"","'"&T5&"'","")]]></f>
+        <f><![CDATA[  CL5&IF(AND(CL5<>"",T5<>""),", ","")&IF(T5<>"", "'"&T5&"'" ,"") ]]></f>
       </c>
       <c r="CN5">
-        <f><![CDATA[CM5&IF(AND(CM5<>"",U5<>""),", ","")&IF(U5<>"","'"&U5&"'","")]]></f>
+        <f><![CDATA[  CM5&IF(AND(CM5<>"",U5<>""),", ","")&IF(U5<>"", "'"&U5&"'" ,"") ]]></f>
       </c>
       <c r="CO5">
-        <f><![CDATA[CN5&IF(AND(CN5<>"",V5<>""),", ","")&IF(V5<>"","'"&V5&"'","")]]></f>
+        <f><![CDATA[  CN5&IF(AND(CN5<>"",V5<>""),", ","")&IF(V5<>"", "'"&V5&"'" ,"") ]]></f>
       </c>
       <c r="CP5">
-        <f><![CDATA[CO5&IF(AND(CO5<>"",W5<>""),", ","")&IF(W5<>"","'"&W5&"'","")]]></f>
+        <f><![CDATA[  CO5&IF(AND(CO5<>"",W5<>""),", ","")&IF(W5<>"", "'"&W5&"'" ,"") ]]></f>
       </c>
       <c r="CQ5">
-        <f><![CDATA[CP5&IF(AND(CP5<>"",X5<>""),", ","")&IF(X5<>"","'"&X5&"'","")]]></f>
+        <f><![CDATA[  CP5&IF(AND(CP5<>"",X5<>""),", ","")&IF(X5<>"", "'"&X5&"'" ,"") ]]></f>
       </c>
       <c r="CR5">
-        <f>CQ5&amp;IF(AND(CQ5&lt;&gt;"",Y5&lt;&gt;""),", ","")&amp;IF(Y5&lt;&gt;"",Y5,"")</f>
+        <f>  CQ5&amp;IF(AND(CQ5&lt;&gt;"",Y5&lt;&gt;""),", ","")&amp;IF(Y5&lt;&gt;"",Y5,"") </f>
       </c>
       <c r="CS5">
-        <f><![CDATA[CR5&IF(AND(CR5<>"",Z5<>""),", ","")&IF(Z5<>"","'"&Z5&"'","")]]></f>
+        <f><![CDATA[  CR5&IF(AND(CR5<>"",Z5<>""),", ","")&IF(Z5<>"", "'"&Z5&"'" ,"") ]]></f>
       </c>
       <c r="CT5">
-        <f>CS5&amp;IF(AND(CS5&lt;&gt;"",AA5&lt;&gt;""),", ","")&amp;IF(AA5&lt;&gt;"",AA5,"")</f>
+        <f>  CS5&amp;IF(AND(CS5&lt;&gt;"",AA5&lt;&gt;""),", ","")&amp;IF(AA5&lt;&gt;"",AA5,"") </f>
       </c>
       <c r="CU5">
-        <f><![CDATA[CT5&IF(AND(CT5<>"",AB5<>""),", ","")&IF(AB5<>"","'"&AB5&"'","")]]></f>
+        <f><![CDATA[  CT5&IF(AND(CT5<>"",AB5<>""),", ","")&IF(AB5<>"", "'"&AB5&"'" ,"") ]]></f>
       </c>
       <c r="CV5">
-        <f>CU5&amp;IF(AND(CU5&lt;&gt;"",AC5&lt;&gt;""),", ","")&amp;IF(AC5&lt;&gt;"",AC5,"")</f>
+        <f>  CU5&amp;IF(AND(CU5&lt;&gt;"",AC5&lt;&gt;""),", ","")&amp;IF(AC5&lt;&gt;"",AC5,"") </f>
       </c>
       <c r="CW5">
-        <f><![CDATA[CV5&IF(AND(CV5<>"",AD5<>""),", ","")&IF(AD5<>"","'"&AD5&"'","")]]></f>
+        <f><![CDATA[  CV5&IF(AND(CV5<>"",AD5<>""),", ","")&IF(AD5<>"", "'"&AD5&"'" ,"") ]]></f>
       </c>
       <c r="CX5">
-        <f><![CDATA[CW5&IF(AND(CW5<>"",AE5<>""),", ","")&IF(AE5<>"","'"&AE5&"'","")]]></f>
+        <f><![CDATA[  CW5&IF(AND(CW5<>"",AE5<>""),", ","")&IF(AE5<>"", "'"&AE5&"'" ,"") ]]></f>
       </c>
       <c r="CY5">
-        <f><![CDATA[CX5&IF(AND(CX5<>"",AF5<>""),", ","")&IF(AF5<>"","'"&AF5&"'","")]]></f>
+        <f><![CDATA[  CX5&IF(AND(CX5<>"",AF5<>""),", ","")&IF(AF5<>"", "'"&AF5&"'" ,"") ]]></f>
       </c>
       <c r="CZ5">
-        <f><![CDATA[CY5&IF(AND(CY5<>"",AG5<>""),", ","")&IF(AG5<>"","'"&TEXT(AG5,"YYYY-MM-DD")&" "&TEXT(AG5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  CY5&IF(AND(CY5<>"",AG5<>""),", ","")&IF(AG5<>"", "'"&TEXT(AG5,"YYYY-MM-DD")&" "&TEXT(AG5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="DA5">
-        <f><![CDATA[CZ5&IF(AND(CZ5<>"",AH5<>""),", ","")&IF(AH5<>"","'"&AH5&"'","")]]></f>
+        <f><![CDATA[  CZ5&IF(AND(CZ5<>"",AH5<>""),", ","")&IF(AH5<>"", "'"&AH5&"'" ,"") ]]></f>
       </c>
       <c r="DB5">
-        <f><![CDATA[DA5&IF(AND(DA5<>"",AI5<>""),", ","")&IF(AI5<>"","'"&TEXT(AI5,"YYYY-MM-DD")&" "&TEXT(AI5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  DA5&IF(AND(DA5<>"",AI5<>""),", ","")&IF(AI5<>"", "'"&TEXT(AI5,"YYYY-MM-DD")&" "&TEXT(AI5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -864,25 +864,25 @@
     </row>
     <row r="5">
       <c r="D5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&G5&") VALUES ("&J5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&G5&") VALUES ("&J5&");" ]]></f>
       </c>
       <c r="E5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="F5">
-        <f><![CDATA[E5&IF(AND(E5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  E5&IF(AND(E5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="G5">
-        <f><![CDATA[F5&IF(AND(F5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  F5&IF(AND(F5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="H5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>

--- a/docs/Finance/templates/LedgerEntry.xlsx
+++ b/docs/Finance/templates/LedgerEntry.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t>ledger_entry</t>
   </si>
@@ -27,159 +27,264 @@
     <t/>
   </si>
   <si>
+    <t>Entry no</t>
+  </si>
+  <si>
     <t>entry_no</t>
   </si>
   <si>
     <t>uuid, PK, NN</t>
   </si>
   <si>
+    <t>Ledger Id</t>
+  </si>
+  <si>
     <t>ledger_id</t>
   </si>
   <si>
     <t>varchar(4), NN</t>
   </si>
   <si>
+    <t>Company code</t>
+  </si>
+  <si>
     <t>company_code_id</t>
   </si>
   <si>
+    <t>Fiscal year</t>
+  </si>
+  <si>
     <t>fiscal_year</t>
   </si>
   <si>
     <t>integer, NN</t>
   </si>
   <si>
+    <t>Document number</t>
+  </si>
+  <si>
     <t>document_number</t>
   </si>
   <si>
     <t>varchar(10), NN</t>
   </si>
   <si>
+    <t>Line item no</t>
+  </si>
+  <si>
     <t>line_item_no</t>
   </si>
   <si>
     <t>varchar(6), NN</t>
   </si>
   <si>
+    <t>Posting date</t>
+  </si>
+  <si>
     <t>posting_date</t>
   </si>
   <si>
     <t>date, NN</t>
   </si>
   <si>
+    <t>Document date</t>
+  </si>
+  <si>
     <t>document_date</t>
   </si>
   <si>
+    <t>Valuation date</t>
+  </si>
+  <si>
     <t>valuation_date</t>
   </si>
   <si>
+    <t>Period</t>
+  </si>
+  <si>
     <t>period</t>
   </si>
   <si>
+    <t>Fiscal year period</t>
+  </si>
+  <si>
     <t>fy_period</t>
   </si>
   <si>
+    <t>Chart of accounts id</t>
+  </si>
+  <si>
     <t>chart_of_accounts_id</t>
   </si>
   <si>
+    <t>General ledger account id</t>
+  </si>
+  <si>
     <t>gl_account_id</t>
   </si>
   <si>
+    <t>Creditor id</t>
+  </si>
+  <si>
     <t>creditor_id</t>
   </si>
   <si>
     <t>varchar(10)</t>
   </si>
   <si>
+    <t>Debtor id</t>
+  </si>
+  <si>
     <t>debtor_id</t>
   </si>
   <si>
+    <t>Business partner id</t>
+  </si>
+  <si>
     <t>business_partner_id</t>
   </si>
   <si>
+    <t>Business area id</t>
+  </si>
+  <si>
     <t>business_area_id</t>
   </si>
   <si>
     <t>varchar(4)</t>
   </si>
   <si>
+    <t>Functional area id</t>
+  </si>
+  <si>
     <t>functional_area_id</t>
   </si>
   <si>
     <t>varchar(20)</t>
   </si>
   <si>
+    <t>Segment id</t>
+  </si>
+  <si>
     <t>segment_id</t>
   </si>
   <si>
+    <t>Valuation area id</t>
+  </si>
+  <si>
     <t>valuation_area_id</t>
   </si>
   <si>
+    <t>Plant id</t>
+  </si>
+  <si>
     <t>plant_id</t>
   </si>
   <si>
+    <t>Location id</t>
+  </si>
+  <si>
     <t>location_id</t>
   </si>
   <si>
+    <t>Material id</t>
+  </si>
+  <si>
     <t>material_id</t>
   </si>
   <si>
     <t>varchar(40)</t>
   </si>
   <si>
+    <t>Debit/credit indicator</t>
+  </si>
+  <si>
     <t>debit_credit</t>
   </si>
   <si>
     <t>debit_credit, NN</t>
   </si>
   <si>
+    <t>Document amount</t>
+  </si>
+  <si>
     <t>document_amount</t>
   </si>
   <si>
     <t>decimal(25,2), NN</t>
   </si>
   <si>
+    <t>Document currency</t>
+  </si>
+  <si>
     <t>document_currency_id</t>
   </si>
   <si>
     <t>varchar(5), NN</t>
   </si>
   <si>
+    <t>Company code amount</t>
+  </si>
+  <si>
     <t>company_code_amount</t>
   </si>
   <si>
+    <t>Company code currency</t>
+  </si>
+  <si>
     <t>company_code_currency_id</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>decimal(25,3)</t>
   </si>
   <si>
+    <t>Unit of measure id</t>
+  </si>
+  <si>
     <t>uom_id</t>
   </si>
   <si>
     <t>varchar(6)</t>
   </si>
   <si>
+    <t>Basic unit of measure id</t>
+  </si>
+  <si>
     <t>basic_uom_id</t>
   </si>
   <si>
+    <t>User created record</t>
+  </si>
+  <si>
     <t>created_by</t>
   </si>
   <si>
     <t>varchar(20), NN</t>
   </si>
   <si>
+    <t>Timestamp of record create</t>
+  </si>
+  <si>
     <t>created_at</t>
   </si>
   <si>
     <t>timestamptz, NN</t>
   </si>
   <si>
+    <t>User updated record</t>
+  </si>
+  <si>
     <t>updated_by</t>
   </si>
   <si>
+    <t>Timestamp of record update</t>
+  </si>
+  <si>
     <t>updated_at</t>
   </si>
   <si>
@@ -192,10 +297,16 @@
     <t>Ledger entry attribute</t>
   </si>
   <si>
+    <t>Attribute id</t>
+  </si>
+  <si>
     <t>attribute_id</t>
   </si>
   <si>
     <t>varchar(10), PK, NN</t>
+  </si>
+  <si>
+    <t>Attribute value id</t>
   </si>
   <si>
     <t>attribute_value_id</t>
@@ -246,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:DB5"/>
+  <dimension ref="A1:DB6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -370,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="AJ2" t="s" s="0">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -378,106 +489,106 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="0">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="0">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="0">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="0">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="0">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="0">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -485,321 +596,428 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="0">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="0">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="0">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AG4" t="s" s="0">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="AH4" t="s" s="0">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="0">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
-      <c r="AJ5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&BS5&") VALUES ("&DB5&");" ]]></f>
-      </c>
-      <c r="AK5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="AL5">
-        <f><![CDATA[  AK5&IF(AND(AK5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="AM5">
-        <f><![CDATA[  AL5&IF(AND(AL5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="AN5">
-        <f><![CDATA[  AM5&IF(AND(AM5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="AO5">
-        <f><![CDATA[  AN5&IF(AND(AN5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="AP5">
-        <f><![CDATA[  AO5&IF(AND(AO5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="AQ5">
-        <f><![CDATA[  AP5&IF(AND(AP5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="AR5">
-        <f><![CDATA[  AQ5&IF(AND(AQ5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
-      </c>
-      <c r="AS5">
-        <f><![CDATA[  AR5&IF(AND(AR5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
-      </c>
-      <c r="AT5">
-        <f><![CDATA[  AS5&IF(AND(AS5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
-      </c>
-      <c r="AU5">
-        <f><![CDATA[  AT5&IF(AND(AT5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
-      </c>
-      <c r="AV5">
-        <f><![CDATA[  AU5&IF(AND(AU5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
-      </c>
-      <c r="AW5">
-        <f><![CDATA[  AV5&IF(AND(AV5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","") ]]></f>
-      </c>
-      <c r="AX5">
-        <f><![CDATA[  AW5&IF(AND(AW5<>"",N5<>""),", ","")&IF(N5<>"",""""&N$3&"""","") ]]></f>
-      </c>
-      <c r="AY5">
-        <f><![CDATA[  AX5&IF(AND(AX5<>"",O5<>""),", ","")&IF(O5<>"",""""&O$3&"""","") ]]></f>
-      </c>
-      <c r="AZ5">
-        <f><![CDATA[  AY5&IF(AND(AY5<>"",P5<>""),", ","")&IF(P5<>"",""""&P$3&"""","") ]]></f>
-      </c>
-      <c r="BA5">
-        <f><![CDATA[  AZ5&IF(AND(AZ5<>"",Q5<>""),", ","")&IF(Q5<>"",""""&Q$3&"""","") ]]></f>
-      </c>
-      <c r="BB5">
-        <f><![CDATA[  BA5&IF(AND(BA5<>"",R5<>""),", ","")&IF(R5<>"",""""&R$3&"""","") ]]></f>
-      </c>
-      <c r="BC5">
-        <f><![CDATA[  BB5&IF(AND(BB5<>"",S5<>""),", ","")&IF(S5<>"",""""&S$3&"""","") ]]></f>
-      </c>
-      <c r="BD5">
-        <f><![CDATA[  BC5&IF(AND(BC5<>"",T5<>""),", ","")&IF(T5<>"",""""&T$3&"""","") ]]></f>
-      </c>
-      <c r="BE5">
-        <f><![CDATA[  BD5&IF(AND(BD5<>"",U5<>""),", ","")&IF(U5<>"",""""&U$3&"""","") ]]></f>
-      </c>
-      <c r="BF5">
-        <f><![CDATA[  BE5&IF(AND(BE5<>"",V5<>""),", ","")&IF(V5<>"",""""&V$3&"""","") ]]></f>
-      </c>
-      <c r="BG5">
-        <f><![CDATA[  BF5&IF(AND(BF5<>"",W5<>""),", ","")&IF(W5<>"",""""&W$3&"""","") ]]></f>
-      </c>
-      <c r="BH5">
-        <f><![CDATA[  BG5&IF(AND(BG5<>"",X5<>""),", ","")&IF(X5<>"",""""&X$3&"""","") ]]></f>
-      </c>
-      <c r="BI5">
-        <f><![CDATA[  BH5&IF(AND(BH5<>"",Y5<>""),", ","")&IF(Y5<>"",""""&Y$3&"""","") ]]></f>
-      </c>
-      <c r="BJ5">
-        <f><![CDATA[  BI5&IF(AND(BI5<>"",Z5<>""),", ","")&IF(Z5<>"",""""&Z$3&"""","") ]]></f>
-      </c>
-      <c r="BK5">
-        <f><![CDATA[  BJ5&IF(AND(BJ5<>"",AA5<>""),", ","")&IF(AA5<>"",""""&AA$3&"""","") ]]></f>
-      </c>
-      <c r="BL5">
-        <f><![CDATA[  BK5&IF(AND(BK5<>"",AB5<>""),", ","")&IF(AB5<>"",""""&AB$3&"""","") ]]></f>
-      </c>
-      <c r="BM5">
-        <f><![CDATA[  BL5&IF(AND(BL5<>"",AC5<>""),", ","")&IF(AC5<>"",""""&AC$3&"""","") ]]></f>
-      </c>
-      <c r="BN5">
-        <f><![CDATA[  BM5&IF(AND(BM5<>"",AD5<>""),", ","")&IF(AD5<>"",""""&AD$3&"""","") ]]></f>
-      </c>
-      <c r="BO5">
-        <f><![CDATA[  BN5&IF(AND(BN5<>"",AE5<>""),", ","")&IF(AE5<>"",""""&AE$3&"""","") ]]></f>
-      </c>
-      <c r="BP5">
-        <f><![CDATA[  BO5&IF(AND(BO5<>"",AF5<>""),", ","")&IF(AF5<>"",""""&AF$3&"""","") ]]></f>
-      </c>
-      <c r="BQ5">
-        <f><![CDATA[  BP5&IF(AND(BP5<>"",AG5<>""),", ","")&IF(AG5<>"",""""&AG$3&"""","") ]]></f>
-      </c>
-      <c r="BR5">
-        <f><![CDATA[  BQ5&IF(AND(BQ5<>"",AH5<>""),", ","")&IF(AH5<>"",""""&AH$3&"""","") ]]></f>
-      </c>
-      <c r="BS5">
-        <f><![CDATA[  BR5&IF(AND(BR5<>"",AI5<>""),", ","")&IF(AI5<>"",""""&AI$3&"""","") ]]></f>
-      </c>
-      <c r="BT5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="BU5">
-        <f><![CDATA[  BT5&IF(AND(BT5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="BV5">
-        <f><![CDATA[  BU5&IF(AND(BU5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="BW5">
-        <f>  BV5&amp;IF(AND(BV5&lt;&gt;"",D5&lt;&gt;""),", ","")&amp;IF(D5&lt;&gt;"",D5,"") </f>
-      </c>
-      <c r="BX5">
-        <f><![CDATA[  BW5&IF(AND(BW5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="BY5">
-        <f><![CDATA[  BX5&IF(AND(BX5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
-      </c>
-      <c r="BZ5">
-        <f><![CDATA[  BY5&IF(AND(BY5<>"",G5<>""),", ","")&IF(G5<>"", "'"&TEXT(G5,"YYYY-MM-DD")&"'" ,"") ]]></f>
-      </c>
-      <c r="CA5">
-        <f><![CDATA[  BZ5&IF(AND(BZ5<>"",H5<>""),", ","")&IF(H5<>"", "'"&TEXT(H5,"YYYY-MM-DD")&"'" ,"") ]]></f>
-      </c>
-      <c r="CB5">
-        <f><![CDATA[  CA5&IF(AND(CA5<>"",I5<>""),", ","")&IF(I5<>"", "'"&TEXT(I5,"YYYY-MM-DD")&"'" ,"") ]]></f>
-      </c>
-      <c r="CC5">
-        <f>  CB5&amp;IF(AND(CB5&lt;&gt;"",J5&lt;&gt;""),", ","")&amp;IF(J5&lt;&gt;"",J5,"") </f>
-      </c>
-      <c r="CD5">
-        <f>  CC5&amp;IF(AND(CC5&lt;&gt;"",K5&lt;&gt;""),", ","")&amp;IF(K5&lt;&gt;"",K5,"") </f>
-      </c>
-      <c r="CE5">
-        <f><![CDATA[  CD5&IF(AND(CD5<>"",L5<>""),", ","")&IF(L5<>"", "'"&L5&"'" ,"") ]]></f>
-      </c>
-      <c r="CF5">
-        <f><![CDATA[  CE5&IF(AND(CE5<>"",M5<>""),", ","")&IF(M5<>"", "'"&M5&"'" ,"") ]]></f>
-      </c>
-      <c r="CG5">
-        <f><![CDATA[  CF5&IF(AND(CF5<>"",N5<>""),", ","")&IF(N5<>"", "'"&N5&"'" ,"") ]]></f>
-      </c>
-      <c r="CH5">
-        <f><![CDATA[  CG5&IF(AND(CG5<>"",O5<>""),", ","")&IF(O5<>"", "'"&O5&"'" ,"") ]]></f>
-      </c>
-      <c r="CI5">
-        <f><![CDATA[  CH5&IF(AND(CH5<>"",P5<>""),", ","")&IF(P5<>"", "'"&P5&"'" ,"") ]]></f>
-      </c>
-      <c r="CJ5">
-        <f><![CDATA[  CI5&IF(AND(CI5<>"",Q5<>""),", ","")&IF(Q5<>"", "'"&Q5&"'" ,"") ]]></f>
-      </c>
-      <c r="CK5">
-        <f><![CDATA[  CJ5&IF(AND(CJ5<>"",R5<>""),", ","")&IF(R5<>"", "'"&R5&"'" ,"") ]]></f>
-      </c>
-      <c r="CL5">
-        <f><![CDATA[  CK5&IF(AND(CK5<>"",S5<>""),", ","")&IF(S5<>"", "'"&S5&"'" ,"") ]]></f>
-      </c>
-      <c r="CM5">
-        <f><![CDATA[  CL5&IF(AND(CL5<>"",T5<>""),", ","")&IF(T5<>"", "'"&T5&"'" ,"") ]]></f>
-      </c>
-      <c r="CN5">
-        <f><![CDATA[  CM5&IF(AND(CM5<>"",U5<>""),", ","")&IF(U5<>"", "'"&U5&"'" ,"") ]]></f>
-      </c>
-      <c r="CO5">
-        <f><![CDATA[  CN5&IF(AND(CN5<>"",V5<>""),", ","")&IF(V5<>"", "'"&V5&"'" ,"") ]]></f>
-      </c>
-      <c r="CP5">
-        <f><![CDATA[  CO5&IF(AND(CO5<>"",W5<>""),", ","")&IF(W5<>"", "'"&W5&"'" ,"") ]]></f>
-      </c>
-      <c r="CQ5">
-        <f><![CDATA[  CP5&IF(AND(CP5<>"",X5<>""),", ","")&IF(X5<>"", "'"&X5&"'" ,"") ]]></f>
-      </c>
-      <c r="CR5">
-        <f>  CQ5&amp;IF(AND(CQ5&lt;&gt;"",Y5&lt;&gt;""),", ","")&amp;IF(Y5&lt;&gt;"",Y5,"") </f>
-      </c>
-      <c r="CS5">
-        <f><![CDATA[  CR5&IF(AND(CR5<>"",Z5<>""),", ","")&IF(Z5<>"", "'"&Z5&"'" ,"") ]]></f>
-      </c>
-      <c r="CT5">
-        <f>  CS5&amp;IF(AND(CS5&lt;&gt;"",AA5&lt;&gt;""),", ","")&amp;IF(AA5&lt;&gt;"",AA5,"") </f>
-      </c>
-      <c r="CU5">
-        <f><![CDATA[  CT5&IF(AND(CT5<>"",AB5<>""),", ","")&IF(AB5<>"", "'"&AB5&"'" ,"") ]]></f>
-      </c>
-      <c r="CV5">
-        <f>  CU5&amp;IF(AND(CU5&lt;&gt;"",AC5&lt;&gt;""),", ","")&amp;IF(AC5&lt;&gt;"",AC5,"") </f>
-      </c>
-      <c r="CW5">
-        <f><![CDATA[  CV5&IF(AND(CV5<>"",AD5<>""),", ","")&IF(AD5<>"", "'"&AD5&"'" ,"") ]]></f>
-      </c>
-      <c r="CX5">
-        <f><![CDATA[  CW5&IF(AND(CW5<>"",AE5<>""),", ","")&IF(AE5<>"", "'"&AE5&"'" ,"") ]]></f>
-      </c>
-      <c r="CY5">
-        <f><![CDATA[  CX5&IF(AND(CX5<>"",AF5<>""),", ","")&IF(AF5<>"", "'"&AF5&"'" ,"") ]]></f>
-      </c>
-      <c r="CZ5">
-        <f><![CDATA[  CY5&IF(AND(CY5<>"",AG5<>""),", ","")&IF(AG5<>"", "'"&TEXT(AG5,"YYYY-MM-DD")&" "&TEXT(AG5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="DA5">
-        <f><![CDATA[  CZ5&IF(AND(CZ5<>"",AH5<>""),", ","")&IF(AH5<>"", "'"&AH5&"'" ,"") ]]></f>
-      </c>
-      <c r="DB5">
-        <f><![CDATA[  DA5&IF(AND(DA5<>"",AI5<>""),", ","")&IF(AI5<>"", "'"&TEXT(AI5,"YYYY-MM-DD")&" "&TEXT(AI5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="P5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="R5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="U5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="V5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="X5" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="Y5" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="Z5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="AA5" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="AB5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="AC5" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="AE5" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="AF5" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="AG5" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="AH5" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="AI5" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="AJ6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&BS6&") VALUES ("&DB6&");" ]]></f>
+      </c>
+      <c r="AK6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="AL6">
+        <f><![CDATA[  AK6&IF(AND(AK6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="AM6">
+        <f><![CDATA[  AL6&IF(AND(AL6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="AN6">
+        <f><![CDATA[  AM6&IF(AND(AM6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="AO6">
+        <f><![CDATA[  AN6&IF(AND(AN6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="AP6">
+        <f><![CDATA[  AO6&IF(AND(AO6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="AQ6">
+        <f><![CDATA[  AP6&IF(AND(AP6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="AR6">
+        <f><![CDATA[  AQ6&IF(AND(AQ6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="AS6">
+        <f><![CDATA[  AR6&IF(AND(AR6<>"",I6<>""),", ","")&IF(I6<>"",""""&I$4&"""","") ]]></f>
+      </c>
+      <c r="AT6">
+        <f><![CDATA[  AS6&IF(AND(AS6<>"",J6<>""),", ","")&IF(J6<>"",""""&J$4&"""","") ]]></f>
+      </c>
+      <c r="AU6">
+        <f><![CDATA[  AT6&IF(AND(AT6<>"",K6<>""),", ","")&IF(K6<>"",""""&K$4&"""","") ]]></f>
+      </c>
+      <c r="AV6">
+        <f><![CDATA[  AU6&IF(AND(AU6<>"",L6<>""),", ","")&IF(L6<>"",""""&L$4&"""","") ]]></f>
+      </c>
+      <c r="AW6">
+        <f><![CDATA[  AV6&IF(AND(AV6<>"",M6<>""),", ","")&IF(M6<>"",""""&M$4&"""","") ]]></f>
+      </c>
+      <c r="AX6">
+        <f><![CDATA[  AW6&IF(AND(AW6<>"",N6<>""),", ","")&IF(N6<>"",""""&N$4&"""","") ]]></f>
+      </c>
+      <c r="AY6">
+        <f><![CDATA[  AX6&IF(AND(AX6<>"",O6<>""),", ","")&IF(O6<>"",""""&O$4&"""","") ]]></f>
+      </c>
+      <c r="AZ6">
+        <f><![CDATA[  AY6&IF(AND(AY6<>"",P6<>""),", ","")&IF(P6<>"",""""&P$4&"""","") ]]></f>
+      </c>
+      <c r="BA6">
+        <f><![CDATA[  AZ6&IF(AND(AZ6<>"",Q6<>""),", ","")&IF(Q6<>"",""""&Q$4&"""","") ]]></f>
+      </c>
+      <c r="BB6">
+        <f><![CDATA[  BA6&IF(AND(BA6<>"",R6<>""),", ","")&IF(R6<>"",""""&R$4&"""","") ]]></f>
+      </c>
+      <c r="BC6">
+        <f><![CDATA[  BB6&IF(AND(BB6<>"",S6<>""),", ","")&IF(S6<>"",""""&S$4&"""","") ]]></f>
+      </c>
+      <c r="BD6">
+        <f><![CDATA[  BC6&IF(AND(BC6<>"",T6<>""),", ","")&IF(T6<>"",""""&T$4&"""","") ]]></f>
+      </c>
+      <c r="BE6">
+        <f><![CDATA[  BD6&IF(AND(BD6<>"",U6<>""),", ","")&IF(U6<>"",""""&U$4&"""","") ]]></f>
+      </c>
+      <c r="BF6">
+        <f><![CDATA[  BE6&IF(AND(BE6<>"",V6<>""),", ","")&IF(V6<>"",""""&V$4&"""","") ]]></f>
+      </c>
+      <c r="BG6">
+        <f><![CDATA[  BF6&IF(AND(BF6<>"",W6<>""),", ","")&IF(W6<>"",""""&W$4&"""","") ]]></f>
+      </c>
+      <c r="BH6">
+        <f><![CDATA[  BG6&IF(AND(BG6<>"",X6<>""),", ","")&IF(X6<>"",""""&X$4&"""","") ]]></f>
+      </c>
+      <c r="BI6">
+        <f><![CDATA[  BH6&IF(AND(BH6<>"",Y6<>""),", ","")&IF(Y6<>"",""""&Y$4&"""","") ]]></f>
+      </c>
+      <c r="BJ6">
+        <f><![CDATA[  BI6&IF(AND(BI6<>"",Z6<>""),", ","")&IF(Z6<>"",""""&Z$4&"""","") ]]></f>
+      </c>
+      <c r="BK6">
+        <f><![CDATA[  BJ6&IF(AND(BJ6<>"",AA6<>""),", ","")&IF(AA6<>"",""""&AA$4&"""","") ]]></f>
+      </c>
+      <c r="BL6">
+        <f><![CDATA[  BK6&IF(AND(BK6<>"",AB6<>""),", ","")&IF(AB6<>"",""""&AB$4&"""","") ]]></f>
+      </c>
+      <c r="BM6">
+        <f><![CDATA[  BL6&IF(AND(BL6<>"",AC6<>""),", ","")&IF(AC6<>"",""""&AC$4&"""","") ]]></f>
+      </c>
+      <c r="BN6">
+        <f><![CDATA[  BM6&IF(AND(BM6<>"",AD6<>""),", ","")&IF(AD6<>"",""""&AD$4&"""","") ]]></f>
+      </c>
+      <c r="BO6">
+        <f><![CDATA[  BN6&IF(AND(BN6<>"",AE6<>""),", ","")&IF(AE6<>"",""""&AE$4&"""","") ]]></f>
+      </c>
+      <c r="BP6">
+        <f><![CDATA[  BO6&IF(AND(BO6<>"",AF6<>""),", ","")&IF(AF6<>"",""""&AF$4&"""","") ]]></f>
+      </c>
+      <c r="BQ6">
+        <f><![CDATA[  BP6&IF(AND(BP6<>"",AG6<>""),", ","")&IF(AG6<>"",""""&AG$4&"""","") ]]></f>
+      </c>
+      <c r="BR6">
+        <f><![CDATA[  BQ6&IF(AND(BQ6<>"",AH6<>""),", ","")&IF(AH6<>"",""""&AH$4&"""","") ]]></f>
+      </c>
+      <c r="BS6">
+        <f><![CDATA[  BR6&IF(AND(BR6<>"",AI6<>""),", ","")&IF(AI6<>"",""""&AI$4&"""","") ]]></f>
+      </c>
+      <c r="BT6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="BU6">
+        <f><![CDATA[  BT6&IF(AND(BT6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="BV6">
+        <f><![CDATA[  BU6&IF(AND(BU6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="BW6">
+        <f>  BV6&amp;IF(AND(BV6&lt;&gt;"",D6&lt;&gt;""),", ","")&amp;IF(D6&lt;&gt;"",D6,"") </f>
+      </c>
+      <c r="BX6">
+        <f><![CDATA[  BW6&IF(AND(BW6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="BY6">
+        <f><![CDATA[  BX6&IF(AND(BX6<>"",F6<>""),", ","")&IF(F6<>"", "'"&F6&"'" ,"") ]]></f>
+      </c>
+      <c r="BZ6">
+        <f><![CDATA[  BY6&IF(AND(BY6<>"",G6<>""),", ","")&IF(G6<>"", "'"&TEXT(G6,"YYYY-MM-DD")&"'" ,"") ]]></f>
+      </c>
+      <c r="CA6">
+        <f><![CDATA[  BZ6&IF(AND(BZ6<>"",H6<>""),", ","")&IF(H6<>"", "'"&TEXT(H6,"YYYY-MM-DD")&"'" ,"") ]]></f>
+      </c>
+      <c r="CB6">
+        <f><![CDATA[  CA6&IF(AND(CA6<>"",I6<>""),", ","")&IF(I6<>"", "'"&TEXT(I6,"YYYY-MM-DD")&"'" ,"") ]]></f>
+      </c>
+      <c r="CC6">
+        <f>  CB6&amp;IF(AND(CB6&lt;&gt;"",J6&lt;&gt;""),", ","")&amp;IF(J6&lt;&gt;"",J6,"") </f>
+      </c>
+      <c r="CD6">
+        <f>  CC6&amp;IF(AND(CC6&lt;&gt;"",K6&lt;&gt;""),", ","")&amp;IF(K6&lt;&gt;"",K6,"") </f>
+      </c>
+      <c r="CE6">
+        <f><![CDATA[  CD6&IF(AND(CD6<>"",L6<>""),", ","")&IF(L6<>"", "'"&L6&"'" ,"") ]]></f>
+      </c>
+      <c r="CF6">
+        <f><![CDATA[  CE6&IF(AND(CE6<>"",M6<>""),", ","")&IF(M6<>"", "'"&M6&"'" ,"") ]]></f>
+      </c>
+      <c r="CG6">
+        <f><![CDATA[  CF6&IF(AND(CF6<>"",N6<>""),", ","")&IF(N6<>"", "'"&N6&"'" ,"") ]]></f>
+      </c>
+      <c r="CH6">
+        <f><![CDATA[  CG6&IF(AND(CG6<>"",O6<>""),", ","")&IF(O6<>"", "'"&O6&"'" ,"") ]]></f>
+      </c>
+      <c r="CI6">
+        <f><![CDATA[  CH6&IF(AND(CH6<>"",P6<>""),", ","")&IF(P6<>"", "'"&P6&"'" ,"") ]]></f>
+      </c>
+      <c r="CJ6">
+        <f><![CDATA[  CI6&IF(AND(CI6<>"",Q6<>""),", ","")&IF(Q6<>"", "'"&Q6&"'" ,"") ]]></f>
+      </c>
+      <c r="CK6">
+        <f><![CDATA[  CJ6&IF(AND(CJ6<>"",R6<>""),", ","")&IF(R6<>"", "'"&R6&"'" ,"") ]]></f>
+      </c>
+      <c r="CL6">
+        <f><![CDATA[  CK6&IF(AND(CK6<>"",S6<>""),", ","")&IF(S6<>"", "'"&S6&"'" ,"") ]]></f>
+      </c>
+      <c r="CM6">
+        <f><![CDATA[  CL6&IF(AND(CL6<>"",T6<>""),", ","")&IF(T6<>"", "'"&T6&"'" ,"") ]]></f>
+      </c>
+      <c r="CN6">
+        <f><![CDATA[  CM6&IF(AND(CM6<>"",U6<>""),", ","")&IF(U6<>"", "'"&U6&"'" ,"") ]]></f>
+      </c>
+      <c r="CO6">
+        <f><![CDATA[  CN6&IF(AND(CN6<>"",V6<>""),", ","")&IF(V6<>"", "'"&V6&"'" ,"") ]]></f>
+      </c>
+      <c r="CP6">
+        <f><![CDATA[  CO6&IF(AND(CO6<>"",W6<>""),", ","")&IF(W6<>"", "'"&W6&"'" ,"") ]]></f>
+      </c>
+      <c r="CQ6">
+        <f><![CDATA[  CP6&IF(AND(CP6<>"",X6<>""),", ","")&IF(X6<>"", "'"&X6&"'" ,"") ]]></f>
+      </c>
+      <c r="CR6">
+        <f>  CQ6&amp;IF(AND(CQ6&lt;&gt;"",Y6&lt;&gt;""),", ","")&amp;IF(Y6&lt;&gt;"",Y6,"") </f>
+      </c>
+      <c r="CS6">
+        <f><![CDATA[  CR6&IF(AND(CR6<>"",Z6<>""),", ","")&IF(Z6<>"", "'"&Z6&"'" ,"") ]]></f>
+      </c>
+      <c r="CT6">
+        <f>  CS6&amp;IF(AND(CS6&lt;&gt;"",AA6&lt;&gt;""),", ","")&amp;IF(AA6&lt;&gt;"",AA6,"") </f>
+      </c>
+      <c r="CU6">
+        <f><![CDATA[  CT6&IF(AND(CT6<>"",AB6<>""),", ","")&IF(AB6<>"", "'"&AB6&"'" ,"") ]]></f>
+      </c>
+      <c r="CV6">
+        <f>  CU6&amp;IF(AND(CU6&lt;&gt;"",AC6&lt;&gt;""),", ","")&amp;IF(AC6&lt;&gt;"",AC6,"") </f>
+      </c>
+      <c r="CW6">
+        <f><![CDATA[  CV6&IF(AND(CV6<>"",AD6<>""),", ","")&IF(AD6<>"", "'"&AD6&"'" ,"") ]]></f>
+      </c>
+      <c r="CX6">
+        <f><![CDATA[  CW6&IF(AND(CW6<>"",AE6<>""),", ","")&IF(AE6<>"", "'"&AE6&"'" ,"") ]]></f>
+      </c>
+      <c r="CY6">
+        <f><![CDATA[  CX6&IF(AND(CX6<>"",AF6<>""),", ","")&IF(AF6<>"", "'"&AF6&"'" ,"") ]]></f>
+      </c>
+      <c r="CZ6">
+        <f><![CDATA[  CY6&IF(AND(CY6<>"",AG6<>""),", ","")&IF(AG6<>"", "'"&TEXT(AG6,"YYYY-MM-DD")&" "&TEXT(AG6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="DA6">
+        <f><![CDATA[  CZ6&IF(AND(CZ6<>"",AH6<>""),", ","")&IF(AH6<>"", "'"&AH6&"'" ,"") ]]></f>
+      </c>
+      <c r="DB6">
+        <f><![CDATA[  DA6&IF(AND(DA6<>"",AI6<>""),", ","")&IF(AI6<>"", "'"&TEXT(AI6,"YYYY-MM-DD")&" "&TEXT(AI6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -809,7 +1027,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -820,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
@@ -837,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -845,10 +1063,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -856,33 +1074,44 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&G5&") VALUES ("&J5&");" ]]></f>
-      </c>
-      <c r="E5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="F5">
-        <f><![CDATA[  E5&IF(AND(E5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="G5">
-        <f><![CDATA[  F5&IF(AND(F5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&G6&") VALUES ("&J6&");" ]]></f>
+      </c>
+      <c r="E6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="F6">
+        <f><![CDATA[  E6&IF(AND(E6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="G6">
+        <f><![CDATA[  F6&IF(AND(F6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
